--- a/va_facility_data_2025-02-20/Sioux City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sioux%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sioux City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sioux%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdbdfece8d6d841feadc4c74fd178ea83"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd45ff953e45d47d0bf1fc5f116d422bc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0a7435ac326c4c09ae91119ad974111a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R86078b5287b045a4a1f1c58131684c4d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4e8b50537ca2470dbd2dedc7bdf44401"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb229c155cc27424182a9fdf4cddfa2c0"/>
   </x:sheets>
 </x:workbook>
 </file>
